--- a/output.xlsx
+++ b/output.xlsx
@@ -7,28 +7,22 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet_1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>From</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>To</t>
+    <t>Value</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>2020-08-21 00:00:00</t>
-  </si>
-  <si>
-    <t>2020-09-11 00:00:00</t>
+    <t>2020-09-30</t>
   </si>
 </sst>
 </file>
@@ -386,32 +380,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
